--- a/Middle_Assignment/TestDesign_4/TestDesign_LeThiHoa_4.xlsx
+++ b/Middle_Assignment/TestDesign_4/TestDesign_LeThiHoa_4.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
   <si>
     <t>Common Checklist</t>
   </si>
@@ -374,6 +374,9 @@
     <t>1.6 "Select a lable for effective delivery"</t>
   </si>
   <si>
+    <t>Check status of  "Select a lable for effective delivery": Home, Office</t>
+  </si>
+  <si>
     <t>Check user can be selected "Select a lable for effective delivery": Home, Office</t>
   </si>
   <si>
@@ -407,13 +410,19 @@
     <t>Check usser add new address successfully as Office</t>
   </si>
   <si>
-    <t>Check button Cancel</t>
-  </si>
-  <si>
-    <t>Check button Save</t>
-  </si>
-  <si>
-    <t>Check "Add new address"button</t>
+    <t>Check button Cancel when user does not enter data</t>
+  </si>
+  <si>
+    <t>Check button Cancel when users enter data</t>
+  </si>
+  <si>
+    <t>Check button Save when user does not enter data</t>
+  </si>
+  <si>
+    <t>Check button Save when users enter data</t>
+  </si>
+  <si>
+    <t>Check "Add new address" button</t>
   </si>
   <si>
     <t>Check "Edit" button</t>
@@ -424,11 +433,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
     <numFmt numFmtId="179" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="39">
@@ -486,9 +495,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -498,30 +509,95 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7EA1D0"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -530,9 +606,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,95 +650,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,45 +673,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF7EA1D0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF800000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -748,25 +757,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,182 +961,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FFF7A884"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1042,31 +1051,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,25 +1090,46 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFC0C0C0"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFC0C0C0"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFC0C0C0"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFC0C0C0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,6 +1151,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1144,202 +1168,187 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="10" borderId="6">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="21" borderId="9">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="11" fillId="42" borderId="6"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="36" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="31" borderId="0"/>
+    <xf numFmtId="178" fontId="20" fillId="43" borderId="9"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="27" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="37" fillId="43" borderId="14">
+    <xf numFmtId="178" fontId="25" fillId="28" borderId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="44" borderId="14">
+    <xf numFmtId="178" fontId="28" fillId="44" borderId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1359,6 +1368,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1511,6 +1523,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1528,10 +1549,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1596,8 +1626,8 @@
     <cellStyle name="40% - Accent6" xfId="57" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="58" builtinId="52"/>
     <cellStyle name="background 2" xfId="59"/>
-    <cellStyle name="Normal 2 2" xfId="60"/>
-    <cellStyle name="Header" xfId="61"/>
+    <cellStyle name="Header" xfId="60"/>
+    <cellStyle name="Normal 2 2" xfId="61"/>
     <cellStyle name="Hyperlink 2" xfId="62"/>
     <cellStyle name="Hyperlink 3" xfId="63"/>
     <cellStyle name="Normal 2 3" xfId="64"/>
@@ -1945,1786 +1975,1833 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X121"/>
+  <dimension ref="A1:X124"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15238095238095" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.1428571428571" style="8" customWidth="1"/>
-    <col min="2" max="2" width="45.8571428571429" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.14285714285714" style="9" customWidth="1"/>
-    <col min="4" max="4" width="30" style="9" customWidth="1"/>
-    <col min="5" max="5" width="8.14285714285714" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10.2857142857143" style="9" customWidth="1"/>
-    <col min="7" max="8" width="9.71428571428571" style="9" customWidth="1"/>
-    <col min="9" max="9" width="4.42857142857143" style="9" customWidth="1"/>
-    <col min="10" max="1024" width="9.14285714285714" style="9"/>
+    <col min="1" max="1" width="10.1428571428571" style="9" customWidth="1"/>
+    <col min="2" max="2" width="45.8571428571429" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.14285714285714" style="10" customWidth="1"/>
+    <col min="4" max="4" width="30" style="10" customWidth="1"/>
+    <col min="5" max="5" width="8.14285714285714" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.2857142857143" style="10" customWidth="1"/>
+    <col min="7" max="8" width="9.71428571428571" style="10" customWidth="1"/>
+    <col min="9" max="9" width="4.42857142857143" style="10" customWidth="1"/>
+    <col min="10" max="1024" width="9.14285714285714" style="10"/>
     <col min="1025" max="16384" width="9.15238095238095" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="14"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:10">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="50"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:10">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="50"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="25.5" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="50"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:24">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="50"/>
-      <c r="X7" s="57"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="51"/>
+      <c r="X7" s="58"/>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:10">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="50"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="51"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:10">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="26" t="str">
+      <c r="B9" s="27" t="str">
         <f>F17</f>
         <v>Enviroment1</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="27">
         <f>G17</f>
         <v>0</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="27">
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="50"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="51"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:10">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="50"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:10">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="50"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:10">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="50"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:10">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="50"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="51"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:10">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="50"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="51"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="38.25" spans="1:10">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="50"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="51"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:10">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="51"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="52"/>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:10">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33" t="s">
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="51"/>
+      <c r="J17" s="52"/>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:10">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="52"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="53"/>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:10">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="52"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="53"/>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:10">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="53"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" s="6" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A21" s="39">
+      <c r="A21" s="40">
         <f ca="1" t="shared" ref="A21:A27" si="0">IF(OFFSET(A21,-1,0)="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1)</f>
         <v>1</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="J21" s="54"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A22" s="39">
+      <c r="A22" s="40">
         <f ca="1" t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="55"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="56"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A23" s="39">
+      <c r="A23" s="40">
         <f ca="1" t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="55"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A24" s="39">
+      <c r="A24" s="40">
         <f ca="1" t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="55"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A25" s="39">
+      <c r="A25" s="40">
         <f ca="1" t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="55"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="56"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A26" s="39">
+      <c r="A26" s="40">
         <f ca="1" t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="55"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="56"/>
     </row>
     <row r="27" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A27" s="39">
+      <c r="A27" s="40">
         <f ca="1" t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="55"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="56"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A28" s="39">
+      <c r="A28" s="40">
         <f ca="1" t="shared" ref="A27:A36" si="1">IF(OFFSET(A28,-1,0)="",OFFSET(A28,-2,0)+1,OFFSET(A28,-1,0)+1)</f>
         <v>8</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="55"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="56"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A29" s="39">
+      <c r="A29" s="40">
         <f ca="1" t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="55"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="56"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A30" s="39">
+      <c r="A30" s="40">
         <f ca="1" t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="55"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A31" s="39">
+      <c r="A31" s="40">
         <f ca="1" t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="55"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="56"/>
     </row>
     <row r="32" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A32" s="39">
+      <c r="A32" s="40">
         <f ca="1" t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="55"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="56"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A33" s="39">
+      <c r="A33" s="40">
         <f ca="1" t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="55"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="56"/>
     </row>
     <row r="34" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A34" s="39">
+      <c r="A34" s="40">
         <f ca="1" t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="55"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="56"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A35" s="39">
+      <c r="A35" s="40">
         <f ca="1" t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="55"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="56"/>
     </row>
     <row r="36" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A36" s="39">
+      <c r="A36" s="40">
         <f ca="1" t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="55"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="56"/>
     </row>
     <row r="37" s="5" customFormat="1" spans="1:10">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36" t="s">
+      <c r="A37" s="36"/>
+      <c r="B37" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="53"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="54"/>
     </row>
     <row r="38" s="6" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A38" s="39">
+      <c r="A38" s="40">
         <f ca="1" t="shared" ref="A38:A44" si="2">IF(OFFSET(A38,-1,0)="",OFFSET(A38,-2,0)+1,OFFSET(A38,-1,0)+1)</f>
         <v>17</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="J38" s="54"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="J38" s="55"/>
     </row>
     <row r="39" s="6" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A39" s="39">
+      <c r="A39" s="40">
         <f ca="1" t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="J39" s="54"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="J39" s="55"/>
     </row>
     <row r="40" s="6" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A40" s="39">
+      <c r="A40" s="40">
         <f ca="1" t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="J40" s="54"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="J40" s="55"/>
     </row>
     <row r="41" s="6" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A41" s="39">
+      <c r="A41" s="40">
         <f ca="1" t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="J41" s="54"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="J41" s="55"/>
     </row>
     <row r="42" s="6" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A42" s="39">
+      <c r="A42" s="40">
         <f ca="1" t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="J42" s="54"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="J42" s="55"/>
     </row>
     <row r="43" s="6" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A43" s="39">
+      <c r="A43" s="40">
         <f ca="1" t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="J43" s="54"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="J43" s="55"/>
     </row>
     <row r="44" s="6" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A44" s="39">
+      <c r="A44" s="40">
         <f ca="1" t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="J44" s="54"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="J44" s="55"/>
     </row>
     <row r="45" s="6" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A45" s="39">
+      <c r="A45" s="40">
         <f ca="1" t="shared" ref="A45:A52" si="3">IF(OFFSET(A45,-1,0)="",OFFSET(A45,-2,0)+1,OFFSET(A45,-1,0)+1)</f>
         <v>24</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="39"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="J45" s="54"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="J45" s="55"/>
     </row>
     <row r="46" s="6" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A46" s="39">
+      <c r="A46" s="40">
         <f ca="1" t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="J46" s="54"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="J46" s="55"/>
     </row>
     <row r="47" s="6" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A47" s="39">
+      <c r="A47" s="40">
         <f ca="1" t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="J47" s="54"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="J47" s="55"/>
     </row>
     <row r="48" s="6" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A48" s="39">
+      <c r="A48" s="40">
         <f ca="1" t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="J48" s="54"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="J48" s="55"/>
     </row>
     <row r="49" s="6" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A49" s="39">
+      <c r="A49" s="40">
         <f ca="1" t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="40" t="s">
+      <c r="C49" s="40"/>
+      <c r="D49" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="J49" s="54"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="J49" s="55"/>
     </row>
     <row r="50" s="6" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A50" s="39">
+      <c r="A50" s="40">
         <f ca="1" t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="J50" s="54"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="J50" s="55"/>
     </row>
     <row r="51" s="6" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A51" s="39">
+      <c r="A51" s="40">
         <f ca="1" t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="J51" s="54"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="J51" s="55"/>
     </row>
     <row r="52" s="6" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A52" s="39">
+      <c r="A52" s="40">
         <f ca="1" t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="54"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="55"/>
     </row>
     <row r="53" s="5" customFormat="1" spans="1:10">
-      <c r="A53" s="38"/>
-      <c r="B53" s="47" t="s">
+      <c r="A53" s="39"/>
+      <c r="B53" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="53"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="54"/>
     </row>
     <row r="54" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A54" s="39">
+      <c r="A54" s="40">
         <f ca="1" t="shared" ref="A54:A59" si="4">IF(OFFSET(A54,-1,0)="",OFFSET(A54,-2,0)+1,OFFSET(A54,-1,0)+1)</f>
         <v>32</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="55"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="56"/>
     </row>
     <row r="55" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A55" s="39">
+      <c r="A55" s="40">
         <f ca="1" t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="39"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="55"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="56"/>
     </row>
     <row r="56" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A56" s="39">
+      <c r="A56" s="40">
         <f ca="1" t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="55"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="56"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A57" s="39">
+      <c r="A57" s="40">
         <f ca="1" t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="39"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="55"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="56"/>
     </row>
     <row r="58" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A58" s="39">
+      <c r="A58" s="40">
         <f ca="1" t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="39"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="55"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="56"/>
     </row>
     <row r="59" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A59" s="39">
+      <c r="A59" s="40">
         <f ca="1" t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="39"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="55"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="56"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A60" s="39">
+      <c r="A60" s="40">
         <f ca="1" t="shared" ref="A60:A68" si="5">IF(OFFSET(A60,-1,0)="",OFFSET(A60,-2,0)+1,OFFSET(A60,-1,0)+1)</f>
         <v>38</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="39"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="55"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="56"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A61" s="39">
+      <c r="A61" s="40">
         <f ca="1" t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="39"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="55"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="56"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A62" s="39">
+      <c r="A62" s="40">
         <f ca="1" t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="39"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="55"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="56"/>
     </row>
     <row r="63" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A63" s="39">
+      <c r="A63" s="40">
         <f ca="1" t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="55"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="56"/>
     </row>
     <row r="64" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A64" s="39">
+      <c r="A64" s="40">
         <f ca="1" t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="55"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="56"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A65" s="39">
+      <c r="A65" s="40">
         <f ca="1" t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="39"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="55"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="56"/>
     </row>
     <row r="66" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A66" s="39">
+      <c r="A66" s="40">
         <f ca="1" t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="39"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="55"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="56"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A67" s="39">
+      <c r="A67" s="40">
         <f ca="1" t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="39"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="55"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="56"/>
     </row>
     <row r="68" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A68" s="39">
+      <c r="A68" s="40">
         <f ca="1" t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="55"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="56"/>
     </row>
     <row r="69" s="5" customFormat="1" spans="1:10">
-      <c r="A69" s="38"/>
-      <c r="B69" s="47" t="s">
+      <c r="A69" s="39"/>
+      <c r="B69" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="53"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="54"/>
     </row>
     <row r="70" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A70" s="39">
+      <c r="A70" s="40">
         <f ca="1">IF(OFFSET(A70,-1,0)="",OFFSET(A70,-2,0)+1,OFFSET(A70,-1,0)+1)</f>
         <v>47</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="39"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="55"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="56"/>
     </row>
     <row r="71" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A71" s="39">
+      <c r="A71" s="40">
         <f ca="1">IF(OFFSET(A71,-1,0)="",OFFSET(A71,-2,0)+1,OFFSET(A71,-1,0)+1)</f>
         <v>48</v>
       </c>
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="39"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="55"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="56"/>
     </row>
     <row r="72" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A72" s="39">
+      <c r="A72" s="40">
         <f ca="1">IF(OFFSET(A72,-1,0)="",OFFSET(A72,-2,0)+1,OFFSET(A72,-1,0)+1)</f>
         <v>49</v>
       </c>
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="39"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="55"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="69"/>
+      <c r="J72" s="56"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A73" s="39">
+      <c r="A73" s="40">
         <f ca="1">IF(OFFSET(A73,-1,0)="",OFFSET(A73,-2,0)+1,OFFSET(A73,-1,0)+1)</f>
         <v>50</v>
       </c>
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="39"/>
-      <c r="D73" s="43" t="s">
+      <c r="C73" s="40"/>
+      <c r="D73" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="E73" s="40"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="55"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="56"/>
     </row>
     <row r="74" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A74" s="39">
+      <c r="A74" s="40">
         <f ca="1">IF(OFFSET(A74,-1,0)="",OFFSET(A74,-2,0)+1,OFFSET(A74,-1,0)+1)</f>
         <v>51</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="39"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="55"/>
+      <c r="C74" s="40"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="56"/>
     </row>
     <row r="75" s="5" customFormat="1" spans="1:10">
-      <c r="A75" s="38"/>
-      <c r="B75" s="47" t="s">
+      <c r="A75" s="39"/>
+      <c r="B75" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="53"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="54"/>
     </row>
     <row r="76" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A76" s="39">
+      <c r="A76" s="40">
         <f ca="1" t="shared" ref="A76:A81" si="6">IF(OFFSET(A76,-1,0)="",OFFSET(A76,-2,0)+1,OFFSET(A76,-1,0)+1)</f>
         <v>52</v>
       </c>
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="39"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="55"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="56"/>
     </row>
     <row r="77" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A77" s="39">
+      <c r="A77" s="40">
         <f ca="1" t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="39"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="55"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="56"/>
     </row>
     <row r="78" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A78" s="39">
+      <c r="A78" s="40">
         <f ca="1" t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="B78" s="40" t="s">
+      <c r="B78" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="39"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="64"/>
-      <c r="J78" s="55"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="69"/>
+      <c r="J78" s="56"/>
     </row>
     <row r="79" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A79" s="39">
+      <c r="A79" s="40">
         <f ca="1" t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="39"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="64"/>
-      <c r="J79" s="55"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="69"/>
+      <c r="J79" s="56"/>
     </row>
     <row r="80" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A80" s="39">
+      <c r="A80" s="40">
         <f ca="1" t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="39"/>
-      <c r="D80" s="43" t="s">
+      <c r="C80" s="40"/>
+      <c r="D80" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="E80" s="40"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="55"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="56"/>
     </row>
     <row r="81" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A81" s="39">
+      <c r="A81" s="40">
         <f ca="1" t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="39"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="55"/>
+      <c r="C81" s="40"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="56"/>
     </row>
     <row r="82" s="5" customFormat="1" spans="1:10">
-      <c r="A82" s="38"/>
-      <c r="B82" s="47" t="s">
+      <c r="A82" s="39"/>
+      <c r="B82" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="53"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="54"/>
     </row>
     <row r="83" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A83" s="39">
+      <c r="A83" s="40">
         <f ca="1" t="shared" ref="A83:A88" si="7">IF(OFFSET(A83,-1,0)="",OFFSET(A83,-2,0)+1,OFFSET(A83,-1,0)+1)</f>
         <v>58</v>
       </c>
-      <c r="B83" s="39" t="s">
+      <c r="B83" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="39"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="55"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="56"/>
     </row>
     <row r="84" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A84" s="39">
+      <c r="A84" s="40">
         <f ca="1" t="shared" si="7"/>
         <v>59</v>
       </c>
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="39"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="55"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="56"/>
     </row>
     <row r="85" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A85" s="39">
+      <c r="A85" s="40">
         <f ca="1" t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="39"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="64"/>
-      <c r="J85" s="55"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="69"/>
+      <c r="J85" s="56"/>
     </row>
     <row r="86" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A86" s="39">
+      <c r="A86" s="40">
         <f ca="1" t="shared" si="7"/>
         <v>61</v>
       </c>
-      <c r="B86" s="43" t="s">
+      <c r="B86" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="39"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="64"/>
-      <c r="J86" s="55"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="69"/>
+      <c r="J86" s="56"/>
     </row>
     <row r="87" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A87" s="39">
+      <c r="A87" s="40">
         <f ca="1" t="shared" si="7"/>
         <v>62</v>
       </c>
-      <c r="B87" s="43" t="s">
+      <c r="B87" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C87" s="39"/>
-      <c r="D87" s="43" t="s">
+      <c r="C87" s="40"/>
+      <c r="D87" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="E87" s="40"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="55"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="56"/>
     </row>
     <row r="88" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A88" s="39">
+      <c r="A88" s="40">
         <f ca="1" t="shared" si="7"/>
         <v>63</v>
       </c>
-      <c r="B88" s="43" t="s">
+      <c r="B88" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="39"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="55"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="56"/>
     </row>
     <row r="89" s="5" customFormat="1" spans="1:10">
-      <c r="A89" s="38"/>
-      <c r="B89" s="47" t="s">
+      <c r="A89" s="39"/>
+      <c r="B89" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="48"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="53"/>
-    </row>
-    <row r="90" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A90" s="39">
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="54"/>
+    </row>
+    <row r="90" s="7" customFormat="1" ht="25.5" spans="1:10">
+      <c r="A90" s="40">
         <f ca="1">IF(OFFSET(A90,-1,0)="",OFFSET(A90,-2,0)+1,OFFSET(A90,-1,0)+1)</f>
         <v>64</v>
       </c>
-      <c r="B90" s="56" t="s">
+      <c r="B90" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="56"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="55"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="60"/>
+      <c r="J90" s="70"/>
     </row>
     <row r="91" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A91" s="39">
+      <c r="A91" s="40">
         <f ca="1">IF(OFFSET(A91,-1,0)="",OFFSET(A91,-2,0)+1,OFFSET(A91,-1,0)+1)</f>
         <v>65</v>
       </c>
-      <c r="B91" s="42" t="s">
+      <c r="B91" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="41"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="55"/>
-    </row>
-    <row r="92" s="7" customFormat="1" spans="1:10">
-      <c r="A92" s="59"/>
-      <c r="B92" s="34" t="s">
+      <c r="C91" s="57"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="56"/>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
+      <c r="A92" s="40">
+        <f ca="1">IF(OFFSET(A92,-1,0)="",OFFSET(A92,-2,0)+1,OFFSET(A92,-1,0)+1)</f>
+        <v>66</v>
+      </c>
+      <c r="B92" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="59"/>
-      <c r="J92" s="65"/>
-    </row>
-    <row r="93" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A93" s="39">
-        <f ca="1" t="shared" ref="A93:A104" si="8">IF(OFFSET(A93,-1,0)="",OFFSET(A93,-2,0)+1,OFFSET(A93,-1,0)+1)</f>
-        <v>66</v>
-      </c>
-      <c r="B93" s="56" t="s">
+      <c r="C92" s="42"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="56"/>
+    </row>
+    <row r="93" s="8" customFormat="1" spans="1:10">
+      <c r="A93" s="63"/>
+      <c r="B93" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="55"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="63"/>
+      <c r="H93" s="63"/>
+      <c r="I93" s="63"/>
+      <c r="J93" s="71"/>
     </row>
     <row r="94" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A94" s="39">
-        <f ca="1" t="shared" si="8"/>
+      <c r="A94" s="40">
+        <f ca="1" t="shared" ref="A94:A105" si="8">IF(OFFSET(A94,-1,0)="",OFFSET(A94,-2,0)+1,OFFSET(A94,-1,0)+1)</f>
         <v>67</v>
       </c>
-      <c r="B94" s="56" t="s">
+      <c r="B94" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="41"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="41"/>
-      <c r="J94" s="55"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="56"/>
     </row>
     <row r="95" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A95" s="39">
+      <c r="A95" s="40">
         <f ca="1" t="shared" si="8"/>
         <v>68</v>
       </c>
-      <c r="B95" s="60" t="s">
+      <c r="B95" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="55"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="56"/>
     </row>
     <row r="96" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A96" s="39">
+      <c r="A96" s="40">
         <f ca="1" t="shared" si="8"/>
         <v>69</v>
       </c>
-      <c r="B96" s="61" t="s">
+      <c r="B96" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="56"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="55"/>
-    </row>
-    <row r="97" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A97" s="39">
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="56"/>
+    </row>
+    <row r="97" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
+      <c r="A97" s="40">
         <f ca="1" t="shared" si="8"/>
         <v>70</v>
       </c>
-      <c r="B97" s="60" t="s">
+      <c r="B97" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="C97" s="56"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="55"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="56"/>
     </row>
     <row r="98" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A98" s="39">
+      <c r="A98" s="40">
         <f ca="1" t="shared" si="8"/>
         <v>71</v>
       </c>
-      <c r="B98" s="60" t="s">
+      <c r="B98" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C98" s="56"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="55"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="56"/>
     </row>
     <row r="99" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A99" s="39">
+      <c r="A99" s="40">
         <f ca="1" t="shared" si="8"/>
         <v>72</v>
       </c>
-      <c r="B99" s="42" t="s">
+      <c r="B99" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C99" s="41"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="55"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="56"/>
     </row>
     <row r="100" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A100" s="39">
+      <c r="A100" s="40">
         <f ca="1" t="shared" si="8"/>
         <v>73</v>
       </c>
-      <c r="B100" s="60" t="s">
+      <c r="B100" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="41"/>
+      <c r="C100" s="42"/>
       <c r="D100" s="62"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="55"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="56"/>
     </row>
     <row r="101" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A101" s="39">
+      <c r="A101" s="40">
         <f ca="1" t="shared" si="8"/>
         <v>74</v>
       </c>
-      <c r="B101" s="56" t="s">
+      <c r="B101" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C101" s="41"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="41"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="55"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="66"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="56"/>
     </row>
     <row r="102" s="1" customFormat="1" outlineLevel="1" spans="1:10">
-      <c r="A102" s="39">
+      <c r="A102" s="40">
         <f ca="1" t="shared" si="8"/>
         <v>75</v>
       </c>
-      <c r="B102" s="41" t="s">
+      <c r="B102" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="J102" s="55"/>
-    </row>
-    <row r="103" s="1" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" spans="1:9">
-      <c r="A103" s="39">
-        <f ca="1" t="shared" si="8"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="56"/>
+    </row>
+    <row r="103" s="1" customFormat="1" outlineLevel="1" spans="1:10">
+      <c r="A103" s="40">
+        <f ca="1">IF(OFFSET(A103,-1,0)="",OFFSET(A103,-2,0)+1,OFFSET(A103,-1,0)+1)</f>
         <v>76</v>
       </c>
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="63"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="63"/>
-      <c r="F103" s="63"/>
-      <c r="G103" s="63"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="63"/>
-    </row>
-    <row r="104" s="1" customFormat="1" outlineLevel="1" spans="1:9">
-      <c r="A104" s="39">
-        <f ca="1" t="shared" si="8"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="J103" s="56"/>
+    </row>
+    <row r="104" s="1" customFormat="1" outlineLevel="1" spans="1:10">
+      <c r="A104" s="40">
+        <f ca="1">IF(OFFSET(A104,-1,0)="",OFFSET(A104,-2,0)+1,OFFSET(A104,-1,0)+1)</f>
         <v>77</v>
       </c>
-      <c r="B104" s="41" t="s">
+      <c r="B104" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C104" s="41"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="41"/>
-    </row>
-    <row r="105" s="1" customFormat="1" outlineLevel="1" spans="1:9">
-      <c r="A105" s="39"/>
-      <c r="B105" s="60"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-    </row>
-    <row r="106" s="1" customFormat="1" outlineLevel="1" spans="1:9">
-      <c r="A106" s="39"/>
-      <c r="B106" s="60"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="J104" s="56"/>
+    </row>
+    <row r="105" s="1" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" spans="1:10">
+      <c r="A105" s="40">
+        <f ca="1">IF(OFFSET(A105,-1,0)="",OFFSET(A105,-2,0)+1,OFFSET(A105,-1,0)+1)</f>
+        <v>78</v>
+      </c>
+      <c r="B105" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="67"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67"/>
+      <c r="J105" s="72"/>
+    </row>
+    <row r="106" s="1" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" spans="1:9">
+      <c r="A106" s="40">
+        <f ca="1">IF(OFFSET(A106,-1,0)="",OFFSET(A106,-2,0)+1,OFFSET(A106,-1,0)+1)</f>
+        <v>79</v>
+      </c>
+      <c r="B106" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="68"/>
+      <c r="D106" s="68"/>
+      <c r="E106" s="68"/>
+      <c r="F106" s="68"/>
+      <c r="G106" s="68"/>
+      <c r="H106" s="68"/>
+      <c r="I106" s="68"/>
     </row>
     <row r="107" s="1" customFormat="1" outlineLevel="1" spans="1:9">
-      <c r="A107" s="39"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
+      <c r="A107" s="40">
+        <f ca="1">IF(OFFSET(A107,-1,0)="",OFFSET(A107,-2,0)+1,OFFSET(A107,-1,0)+1)</f>
+        <v>80</v>
+      </c>
+      <c r="B107" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
     </row>
     <row r="108" s="1" customFormat="1" outlineLevel="1" spans="1:9">
-      <c r="A108" s="39"/>
-      <c r="C108" s="41"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="41"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-    </row>
-    <row r="109" s="1" customFormat="1" spans="1:8">
-      <c r="A109" s="39"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-    </row>
-    <row r="110" s="1" customFormat="1" spans="1:1">
-      <c r="A110" s="39"/>
-    </row>
-    <row r="111" s="1" customFormat="1" spans="2:2">
-      <c r="B111" s="56"/>
-    </row>
-    <row r="112" s="1" customFormat="1"/>
-    <row r="113" s="1" customFormat="1"/>
-    <row r="114" s="1" customFormat="1"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+    </row>
+    <row r="109" s="1" customFormat="1" outlineLevel="1" spans="1:9">
+      <c r="A109" s="40"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+    </row>
+    <row r="110" s="1" customFormat="1" outlineLevel="1" spans="1:9">
+      <c r="A110" s="40"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+    </row>
+    <row r="111" s="1" customFormat="1" outlineLevel="1" spans="1:9">
+      <c r="A111" s="40"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="42"/>
+    </row>
+    <row r="112" s="1" customFormat="1" spans="1:8">
+      <c r="A112" s="40"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="42"/>
+      <c r="H112" s="42"/>
+    </row>
+    <row r="113" s="1" customFormat="1" spans="1:1">
+      <c r="A113" s="40"/>
+    </row>
+    <row r="114" s="1" customFormat="1" spans="2:2">
+      <c r="B114" s="57"/>
+    </row>
     <row r="115" s="1" customFormat="1"/>
     <row r="116" s="1" customFormat="1"/>
     <row r="117" s="1" customFormat="1"/>
@@ -3732,6 +3809,9 @@
     <row r="119" s="1" customFormat="1"/>
     <row r="120" s="1" customFormat="1"/>
     <row r="121" s="1" customFormat="1"/>
+    <row r="122" s="1" customFormat="1"/>
+    <row r="123" s="1" customFormat="1"/>
+    <row r="124" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A1:D1"/>
@@ -3749,12 +3829,12 @@
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation showErrorMessage="1" sqref="F16:H17"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F122:H179">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F125:H182">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
